--- a/实战资料/210422实战表.xlsx
+++ b/实战资料/210422实战表.xlsx
@@ -31,148 +31,148 @@
     <t>黄东阳</t>
   </si>
   <si>
+    <t>文佳豪</t>
+  </si>
+  <si>
     <t>谭诚</t>
   </si>
   <si>
+    <t>曹慧军</t>
+  </si>
+  <si>
+    <t>赵海</t>
+  </si>
+  <si>
+    <t>罗修文</t>
+  </si>
+  <si>
+    <t>梁康伟</t>
+  </si>
+  <si>
+    <t>陈深根</t>
+  </si>
+  <si>
+    <t>五组</t>
+  </si>
+  <si>
+    <t>龙飞宇</t>
+  </si>
+  <si>
+    <t>龙腾</t>
+  </si>
+  <si>
+    <t>张津源</t>
+  </si>
+  <si>
+    <t>蔡锦</t>
+  </si>
+  <si>
+    <t>丁天翔</t>
+  </si>
+  <si>
+    <t>邹涛</t>
+  </si>
+  <si>
+    <t>周伶君</t>
+  </si>
+  <si>
+    <t>二组</t>
+  </si>
+  <si>
+    <t>胡汉文</t>
+  </si>
+  <si>
+    <t>吴永发</t>
+  </si>
+  <si>
+    <t>靖琪</t>
+  </si>
+  <si>
+    <t>张铮</t>
+  </si>
+  <si>
+    <t>周中超</t>
+  </si>
+  <si>
+    <t>林志达</t>
+  </si>
+  <si>
+    <t>谢茂山</t>
+  </si>
+  <si>
+    <t>六组</t>
+  </si>
+  <si>
+    <t>三组</t>
+  </si>
+  <si>
+    <t>杨鹏</t>
+  </si>
+  <si>
+    <t>沈焕茹</t>
+  </si>
+  <si>
+    <t>刘宇</t>
+  </si>
+  <si>
+    <t>袁烨</t>
+  </si>
+  <si>
+    <t>陈明潇</t>
+  </si>
+  <si>
+    <t>陈维</t>
+  </si>
+  <si>
+    <t>汪灏</t>
+  </si>
+  <si>
+    <t>陈祖杰</t>
+  </si>
+  <si>
+    <t>刘晓宝</t>
+  </si>
+  <si>
+    <t>黄嘉文</t>
+  </si>
+  <si>
+    <t>王际文</t>
+  </si>
+  <si>
+    <t>蔡纪恒</t>
+  </si>
+  <si>
+    <t>任疆踰</t>
+  </si>
+  <si>
+    <t>林景行</t>
+  </si>
+  <si>
+    <t>七组</t>
+  </si>
+  <si>
+    <t>四组</t>
+  </si>
+  <si>
+    <t>荣玉飞</t>
+  </si>
+  <si>
+    <t>张平</t>
+  </si>
+  <si>
     <t>林俊彬</t>
   </si>
   <si>
-    <t>曹慧军</t>
-  </si>
-  <si>
-    <t>赵海</t>
-  </si>
-  <si>
-    <t>罗修文</t>
-  </si>
-  <si>
-    <t>梁康伟</t>
-  </si>
-  <si>
-    <t>五组</t>
-  </si>
-  <si>
-    <t>龙飞宇</t>
-  </si>
-  <si>
     <t>宋利峰</t>
   </si>
   <si>
-    <t>蔡锦</t>
-  </si>
-  <si>
-    <t>文佳豪</t>
-  </si>
-  <si>
-    <t>丁天翔</t>
-  </si>
-  <si>
-    <t>邹涛</t>
-  </si>
-  <si>
-    <t>陈祖杰</t>
-  </si>
-  <si>
-    <t>二组</t>
-  </si>
-  <si>
-    <t>胡汉文</t>
-  </si>
-  <si>
-    <t>吴永发</t>
-  </si>
-  <si>
-    <t>靖琪</t>
-  </si>
-  <si>
-    <t>张铮</t>
-  </si>
-  <si>
-    <t>周中超</t>
-  </si>
-  <si>
-    <t>林志达</t>
-  </si>
-  <si>
-    <t>谢茂山</t>
-  </si>
-  <si>
-    <t>六组</t>
-  </si>
-  <si>
-    <t>三组</t>
-  </si>
-  <si>
-    <t>杨鹏</t>
-  </si>
-  <si>
-    <t>沈焕茹</t>
-  </si>
-  <si>
-    <t>张平</t>
-  </si>
-  <si>
-    <t>王际文</t>
-  </si>
-  <si>
-    <t>陈明潇</t>
-  </si>
-  <si>
-    <t>陈维</t>
-  </si>
-  <si>
-    <t>汪灏</t>
-  </si>
-  <si>
-    <t>龙腾</t>
-  </si>
-  <si>
-    <t>黄嘉文</t>
-  </si>
-  <si>
-    <t>荣玉飞</t>
-  </si>
-  <si>
-    <t>袁烨</t>
-  </si>
-  <si>
-    <t>刘晓宝</t>
-  </si>
-  <si>
-    <t>任疆踰</t>
-  </si>
-  <si>
-    <t>林景行</t>
-  </si>
-  <si>
-    <t>七组</t>
-  </si>
-  <si>
-    <t>四组</t>
+    <t>廖雅琴</t>
   </si>
   <si>
     <t>刘成强</t>
   </si>
   <si>
-    <t>陈深根</t>
-  </si>
-  <si>
-    <t>刘宇</t>
-  </si>
-  <si>
-    <t>张津源</t>
-  </si>
-  <si>
-    <t>廖雅琴</t>
-  </si>
-  <si>
-    <t>曾琳翔</t>
-  </si>
-  <si>
     <t>钟嘉炜</t>
-  </si>
-  <si>
-    <t>蔡纪恒</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -187,9 +187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -277,6 +277,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -284,69 +343,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,14 +389,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -391,7 +398,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,22 +412,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,12 +447,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -486,19 +480,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,61 +564,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,79 +636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,17 +701,11 @@
       </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,6 +725,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -752,20 +758,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,15 +790,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -812,10 +806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,137 +818,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,10 +991,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,13 +1006,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,28 +1024,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,10 +1364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="32" customHeight="1"/>
@@ -1417,11 +1405,11 @@
       <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="25">
+      <c r="M2" s="24">
         <v>1</v>
       </c>
       <c r="N2" s="2"/>
@@ -1447,20 +1435,23 @@
         <v>7</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25">
+      <c r="L3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="24">
         <v>2</v>
       </c>
-      <c r="N3" s="26" t="s">
-        <v>11</v>
+      <c r="N3" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:14">
@@ -1469,102 +1460,102 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="J4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="25">
+      <c r="K4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="24">
         <v>3</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="F5" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="J5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="25">
+      <c r="K5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="24">
         <v>4</v>
       </c>
-      <c r="N5" s="30" t="s">
-        <v>27</v>
+      <c r="N5" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="16" t="s">
-        <v>28</v>
+      <c r="A6" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="G6" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="J6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="25">
+      <c r="K6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="24">
         <v>5</v>
       </c>
       <c r="N6" s="2"/>
@@ -1575,69 +1566,66 @@
         <v>6</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>39</v>
       </c>
+      <c r="G7" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="J7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="25">
+      <c r="K7" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="24">
         <v>6</v>
       </c>
-      <c r="N7" s="32" t="s">
-        <v>43</v>
+      <c r="N7" s="30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:16">
-      <c r="A8" s="18" t="s">
-        <v>44</v>
+      <c r="A8" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="B8" s="10">
         <v>7</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>48</v>
       </c>
+      <c r="G8" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="32" t="s">
+      <c r="I8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="J8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="K8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="24">
         <v>7</v>
       </c>
       <c r="N8" s="2"/>
@@ -1650,7 +1638,7 @@
       <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
@@ -1660,7 +1648,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="25">
+      <c r="M9" s="24">
         <v>8</v>
       </c>
       <c r="N9" s="2"/>
@@ -1670,20 +1658,33 @@
       <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" customHeight="1" spans="5:11">
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="6:6">
+      <c r="F12">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
